--- a/inter-analysis-result/dereference_pointer_report.xlsx
+++ b/inter-analysis-result/dereference_pointer_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1015</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>253</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -942,73 +942,73 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>queue_prioritize</t>
+          <t>test_11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QUEUE</t>
+          <t>TEST</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>timer_delete</t>
+          <t>queue_prioritize</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TIMER</t>
+          <t>QUEUE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mutex_delete</t>
+          <t>timer_delete</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MUTEX</t>
+          <t>TIMER</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>semaphore_put_notify</t>
+          <t>mutex_delete</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SEMAPHORE</t>
+          <t>MUTEX</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>semaphore_create</t>
+          <t>semaphore_put_notify</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1023,232 +1023,232 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>byte_pool_create</t>
+          <t>semaphore_create</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BYTE</t>
+          <t>SEMAPHORE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>thread_time_slice_change</t>
+          <t>byte_pool_create</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>THREAD</t>
+          <t>BYTE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>semaphore_get</t>
+          <t>thread_time_slice_change</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SEMAPHORE</t>
+          <t>THREAD</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>event_flags_get</t>
+          <t>semaphore_get</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EVENT</t>
+          <t>SEMAPHORE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>block_pool_info_get</t>
+          <t>event_flags_get</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BLOCK</t>
+          <t>EVENT</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>timer_change</t>
+          <t>block_pool_info_get</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TIMER</t>
+          <t>BLOCK</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>event_flags_delete</t>
+          <t>timer_change</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EVENT</t>
+          <t>TIMER</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>queue_send</t>
+          <t>event_flags_delete</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>QUEUE</t>
+          <t>EVENT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>345</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>event_flags_create</t>
+          <t>queue_send</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EVENT</t>
+          <t>QUEUE</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>byte_pool_prioritize</t>
+          <t>event_flags_create</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BYTE</t>
+          <t>EVENT</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>byte_pool_info_get</t>
+          <t>test_8</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BYTE</t>
+          <t>TEST</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>block_pool_delete</t>
+          <t>byte_pool_prioritize</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BLOCK</t>
+          <t>BYTE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>queue_delete</t>
+          <t>byte_pool_info_get</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QUEUE</t>
+          <t>BYTE</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>thread_create</t>
+          <t>block_pool_delete</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>THREAD</t>
+          <t>BLOCK</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mutex_put</t>
+          <t>queue_delete</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MUTEX</t>
+          <t>QUEUE</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>337</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>thread_delete</t>
+          <t>thread_create</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1263,90 +1263,120 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>thread_wait_abort</t>
+          <t>mutex_put</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>THREAD</t>
+          <t>MUTEX</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>62</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mutex_prioritize</t>
+          <t>thread_delete</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MUTEX</t>
+          <t>THREAD</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>byte_allocate</t>
+          <t>thread_wait_abort</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BYTE</t>
+          <t>THREAD</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>timer_deactivate</t>
+          <t>mutex_prioritize</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TIMER</t>
+          <t>MUTEX</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>thread_resume</t>
+          <t>byte_allocate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>THREAD</t>
+          <t>BYTE</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>timer_deactivate</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TIMER</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>thread_resume</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>THREAD</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>thread_terminate</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>THREAD</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C63" t="n">
         <v>2</v>
       </c>
     </row>
